--- a/assets/files/excel/3357.xlsx
+++ b/assets/files/excel/3357.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="mRWjC1Lk6Vs5qC/iaRNy/o65VSfyDv9XfVdYW5M/q/pKho5iIaH1YYtq5a4GwYwcq37OYuqBhzpX8CAAo7hETw==" workbookSaltValue="sRzAyXt/tdhbznqn+qRyNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -935,9 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1182,9 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1597,7 +1593,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G23" s="24" t="str">
-        <f>IFERROR(IF('Пополняемый вклад'!G22='Пополняемый вклад (решение)'!G22,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Пополняемый вклад'!G22-'Пополняемый вклад (решение)'!G22)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
